--- a/cypress/downloads/order-invoice_nm.xlsx
+++ b/cypress/downloads/order-invoice_nm.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67dd3de6c019fb1ad631f2f3</v>
+        <v>67dd6201c019fb1ad6323a79</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>
